--- a/tests/test_news_no_column.xlsx
+++ b/tests/test_news_no_column.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -22,10 +31,40 @@
     <t>content</t>
   </si>
   <si>
+    <t>author</t>
+  </si>
+  <si>
     <t>publication_date</t>
   </si>
   <si>
-    <t>article_url</t>
+    <t>네이버</t>
+  </si>
+  <si>
+    <t>다음</t>
+  </si>
+  <si>
+    <t>대통령실</t>
+  </si>
+  <si>
+    <t>금융</t>
+  </si>
+  <si>
+    <t>부동산</t>
+  </si>
+  <si>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>JTBC</t>
+  </si>
+  <si>
+    <t>한국경제</t>
   </si>
   <si>
     <t>제목1</t>
@@ -52,6 +91,18 @@
     <t>내용5</t>
   </si>
   <si>
+    <t>작성자1</t>
+  </si>
+  <si>
+    <t>작성자2</t>
+  </si>
+  <si>
+    <t>작성자3</t>
+  </si>
+  <si>
+    <t>작성자6</t>
+  </si>
+  <si>
     <t>2024-05-27 18:00:30</t>
   </si>
   <si>
@@ -62,25 +113,13 @@
   </si>
   <si>
     <t>2024-05-27 18:40:30</t>
-  </si>
-  <si>
-    <t>https://naver.com/123</t>
-  </si>
-  <si>
-    <t>https://naver.com/124</t>
-  </si>
-  <si>
-    <t>https://naver.com/125</t>
-  </si>
-  <si>
-    <t>https://naver.com/126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +134,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,22 +168,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,82 +489,121 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>